--- a/realme/OCTOBER/06.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/06.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 2021" sheetId="7" r:id="rId1"/>
@@ -79,12 +79,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BTRC Actual Product Color Page Print Cost Agreement Paper
+TSM Jafar vai Korese</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -321,6 +336,9 @@
   </si>
   <si>
     <t>Date: 06.10.2021</t>
+  </si>
+  <si>
+    <t>07.10.2021</t>
   </si>
 </sst>
 </file>
@@ -2423,6 +2441,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2460,12 +2484,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3917,9 +3935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3931,67 +3949,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="270" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="269"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="270"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="272"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4000,10 +4018,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="273" t="s">
+      <c r="B4" s="275" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="262" t="s">
@@ -4039,13 +4057,13 @@
       <c r="M4" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="264" t="s">
+      <c r="N4" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="277" t="s">
+      <c r="O4" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="275" t="s">
+      <c r="P4" s="277" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4058,8 +4076,8 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="274"/>
+      <c r="A5" s="274"/>
+      <c r="B5" s="276"/>
       <c r="C5" s="263"/>
       <c r="D5" s="263"/>
       <c r="E5" s="263"/>
@@ -4071,9 +4089,9 @@
       <c r="K5" s="263"/>
       <c r="L5" s="263"/>
       <c r="M5" s="263"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="278"/>
-      <c r="P5" s="276"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="265"/>
+      <c r="P5" s="278"/>
       <c r="Q5" s="125" t="s">
         <v>43</v>
       </c>
@@ -4248,7 +4266,7 @@
       </c>
       <c r="H10" s="138"/>
       <c r="I10" s="138">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J10" s="138">
         <v>80</v>
@@ -4261,7 +4279,7 @@
       <c r="P10" s="140"/>
       <c r="Q10" s="134">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="R10" s="135"/>
       <c r="S10" s="26"/>
@@ -4271,10 +4289,14 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
-      <c r="A11" s="129"/>
+      <c r="A11" s="129" t="s">
+        <v>79</v>
+      </c>
       <c r="B11" s="137"/>
       <c r="C11" s="130"/>
-      <c r="D11" s="138"/>
+      <c r="D11" s="138">
+        <v>475</v>
+      </c>
       <c r="E11" s="138"/>
       <c r="F11" s="138"/>
       <c r="G11" s="138"/>
@@ -4289,7 +4311,7 @@
       <c r="P11" s="140"/>
       <c r="Q11" s="134">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="R11" s="135"/>
       <c r="S11" s="26"/>
@@ -4951,7 +4973,7 @@
       </c>
       <c r="D37" s="156">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="E37" s="156">
         <f t="shared" si="1"/>
@@ -4971,7 +4993,7 @@
       </c>
       <c r="I37" s="156">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="J37" s="156">
         <f t="shared" si="1"/>
@@ -5003,7 +5025,7 @@
       </c>
       <c r="Q37" s="158">
         <f>SUM(Q6:Q36)</f>
-        <v>4420</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7005,12 +7027,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7024,6 +7040,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17174,8 +17196,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I6:I7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
